--- a/excel/사이트 계정정보.xlsx
+++ b/excel/사이트 계정정보.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Consolework\ezadmin-crawler\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Consolework\cocoblanc-order-cancel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC7914A-7128-4CBC-B70F-E7A1F007D6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9BF1CD-6F81-4D67-BF05-49638DF2BE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{25A3A81C-DFF3-4E51-A5F2-6E81332BCBB3}"/>
+    <workbookView xWindow="33510" yWindow="645" windowWidth="19155" windowHeight="14460" xr2:uid="{25A3A81C-DFF3-4E51-A5F2-6E81332BCBB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>채널명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,6 +149,34 @@
   </si>
   <si>
     <t>https://shop.zigzag.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ska0040301!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wldnjs1!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noble_park</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ska7840301!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://admin.pay.naver.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cococs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -193,7 +221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -216,13 +244,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -243,6 +282,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -558,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD825221-5F7A-4969-AC54-408E0965CBB6}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -657,10 +699,10 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
         <v>33</v>
@@ -705,7 +747,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>24</v>
@@ -720,10 +762,25 @@
         <v>7</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/excel/사이트 계정정보.xlsx
+++ b/excel/사이트 계정정보.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Consolework\cocoblanc-order-cancel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9BF1CD-6F81-4D67-BF05-49638DF2BE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CC8355-3DA0-4B26-9D99-8A7209847D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33510" yWindow="645" windowWidth="19155" windowHeight="14460" xr2:uid="{25A3A81C-DFF3-4E51-A5F2-6E81332BCBB3}"/>
+    <workbookView xWindow="795" yWindow="885" windowWidth="19155" windowHeight="14460" xr2:uid="{25A3A81C-DFF3-4E51-A5F2-6E81332BCBB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>채널명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,119 +56,116 @@
     <t>dkny82@nate.com</t>
   </si>
   <si>
+    <t>https://store-sell.kakao.com/dashboard</t>
+  </si>
+  <si>
+    <t>위메프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cocoblanc</t>
+  </si>
+  <si>
+    <t>https://wpartner.wemakeprice.com/main</t>
+  </si>
+  <si>
+    <t>티몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dkny82</t>
+  </si>
+  <si>
+    <t>wldnjs1!</t>
+  </si>
+  <si>
+    <t>쿠팡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브랜디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wldnjs1!!!</t>
+  </si>
+  <si>
+    <t>11번가</t>
+  </si>
+  <si>
+    <t>heaichang</t>
+  </si>
+  <si>
+    <t>https://soffice.11st.co.kr/view/intro</t>
+  </si>
+  <si>
+    <t>브리치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cocoblanc_official@naver.com</t>
+  </si>
+  <si>
+    <t>https://b-flow.co.kr/</t>
+  </si>
+  <si>
+    <t>지그재그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cocoblanc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오톡스토어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wkehdghk1!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://spc.ticketmonster.co.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://admin.brandi.co.kr/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wing.coupang.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://shop.zigzag.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ska0040301!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wldnjs1!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noble_park</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ska7840301!</t>
-  </si>
-  <si>
-    <t>https://store-sell.kakao.com/dashboard</t>
-  </si>
-  <si>
-    <t>위메프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cocoblanc</t>
-  </si>
-  <si>
-    <t>https://wpartner.wemakeprice.com/main</t>
-  </si>
-  <si>
-    <t>티몬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dkny82</t>
-  </si>
-  <si>
-    <t>wldnjs1!</t>
-  </si>
-  <si>
-    <t>쿠팡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>브랜디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wldnjs1!!!</t>
-  </si>
-  <si>
-    <t>11번가</t>
-  </si>
-  <si>
-    <t>heaichang</t>
-  </si>
-  <si>
-    <t>https://soffice.11st.co.kr/view/intro</t>
-  </si>
-  <si>
-    <t>브리치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cocoblanc_official@naver.com</t>
-  </si>
-  <si>
-    <t>https://b-flow.co.kr/</t>
-  </si>
-  <si>
-    <t>지그재그</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도메인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cocoblanc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카카오톡스토어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wkehdghk1!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://spc.ticketmonster.co.kr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://admin.brandi.co.kr/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://wing.coupang.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://shop.zigzag.kr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ska0040301!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wldnjs1!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네이버</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noble_park</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ska7840301!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -177,6 +174,14 @@
   </si>
   <si>
     <t>cococs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dlgnlwo3@naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dl5585</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -261,7 +266,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -284,6 +289,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -603,7 +611,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -619,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -636,13 +644,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -650,137 +658,137 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
+      <c r="C3" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/excel/사이트 계정정보.xlsx
+++ b/excel/사이트 계정정보.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Consolework\cocoblanc-order-cancel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CC8355-3DA0-4B26-9D99-8A7209847D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F279AC-98DF-45EE-BC91-49732041C967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="885" windowWidth="19155" windowHeight="14460" xr2:uid="{25A3A81C-DFF3-4E51-A5F2-6E81332BCBB3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{25A3A81C-DFF3-4E51-A5F2-6E81332BCBB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,95 +93,97 @@
     <t>11번가</t>
   </si>
   <si>
+    <t>브리치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cocoblanc_official@naver.com</t>
+  </si>
+  <si>
+    <t>https://b-flow.co.kr/</t>
+  </si>
+  <si>
+    <t>지그재그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cocoblanc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오톡스토어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wkehdghk1!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://spc.ticketmonster.co.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://admin.brandi.co.kr/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wing.coupang.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://shop.zigzag.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ska0040301!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wldnjs1!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noble_park</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ska7840301!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://admin.pay.naver.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cococs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dlgnlwo3@naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dl5585</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://login.11st.co.kr/auth/front/selleroffice/login.tmall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>heaichang</t>
-  </si>
-  <si>
-    <t>https://soffice.11st.co.kr/view/intro</t>
-  </si>
-  <si>
-    <t>브리치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cocoblanc_official@naver.com</t>
-  </si>
-  <si>
-    <t>https://b-flow.co.kr/</t>
-  </si>
-  <si>
-    <t>지그재그</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도메인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cocoblanc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카카오톡스토어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wkehdghk1!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://spc.ticketmonster.co.kr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://admin.brandi.co.kr/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://wing.coupang.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://shop.zigzag.kr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ska0040301!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wldnjs1!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네이버</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noble_park</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ska7840301!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://admin.pay.naver.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cococs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dlgnlwo3@naver.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dl5585</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -611,7 +613,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -627,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -644,13 +646,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -658,14 +660,14 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>8</v>
@@ -698,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -707,13 +709,13 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -728,7 +730,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -737,58 +739,58 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>20</v>
+        <v>33</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/excel/사이트 계정정보.xlsx
+++ b/excel/사이트 계정정보.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Consolework\cocoblanc-order-cancel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F279AC-98DF-45EE-BC91-49732041C967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90A0F27-DF82-4018-949F-87744A8C5A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{25A3A81C-DFF3-4E51-A5F2-6E81332BCBB3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>채널명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,13 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>브랜디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wldnjs1!!!</t>
-  </si>
-  <si>
     <t>11번가</t>
   </si>
   <si>
@@ -128,10 +121,6 @@
   </si>
   <si>
     <t>https://spc.ticketmonster.co.kr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://admin.brandi.co.kr/login</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -610,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD825221-5F7A-4969-AC54-408E0965CBB6}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -629,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -646,13 +635,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -660,14 +649,14 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>8</v>
@@ -700,7 +689,7 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -709,13 +698,13 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -724,73 +713,58 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="E10" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/excel/사이트 계정정보.xlsx
+++ b/excel/사이트 계정정보.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Consolework\cocoblanc-order-cancel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90A0F27-DF82-4018-949F-87744A8C5A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3586D9-C3FA-413C-94A3-67CFE1559813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{25A3A81C-DFF3-4E51-A5F2-6E81332BCBB3}"/>
   </bookViews>
@@ -197,7 +197,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,6 +213,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,7 +263,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -284,6 +290,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,7 +617,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -693,63 +708,63 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="A6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>38</v>
+      <c r="E7" s="11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>19</v>
+      <c r="E8" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">

--- a/excel/사이트 계정정보.xlsx
+++ b/excel/사이트 계정정보.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Consolework\cocoblanc-order-cancel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3586D9-C3FA-413C-94A3-67CFE1559813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB113082-55B0-4571-8C0E-6809BA46C519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{25A3A81C-DFF3-4E51-A5F2-6E81332BCBB3}"/>
   </bookViews>
@@ -152,10 +152,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://admin.pay.naver.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cococs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,6 +169,10 @@
   </si>
   <si>
     <t>heaichang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nid.naver.com/nidlogin.login?url=https://admin.pay.naver.com/nid/check</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -617,7 +617,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -668,10 +668,10 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>8</v>
@@ -743,7 +743,7 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>30</v>
@@ -758,13 +758,13 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -779,7 +779,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/excel/사이트 계정정보.xlsx
+++ b/excel/사이트 계정정보.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Consolework\cocoblanc-order-cancel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB113082-55B0-4571-8C0E-6809BA46C519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27D40C9-E09F-484E-80F8-5CD67301311E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{25A3A81C-DFF3-4E51-A5F2-6E81332BCBB3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{25A3A81C-DFF3-4E51-A5F2-6E81332BCBB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>채널명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +173,14 @@
   </si>
   <si>
     <t>https://nid.naver.com/nidlogin.login?url=https://admin.pay.naver.com/nid/check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API_KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a69d9ede007208255aaa2f8c602d276c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -223,7 +231,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -257,13 +265,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -299,6 +316,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -614,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD825221-5F7A-4969-AC54-408E0965CBB6}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -625,10 +648,12 @@
     <col min="1" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="37.125" customWidth="1"/>
     <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.25" customWidth="1"/>
+    <col min="5" max="5" width="71.5" customWidth="1"/>
+    <col min="6" max="6" width="44" customWidth="1"/>
+    <col min="7" max="7" width="29.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -644,8 +669,11 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -662,7 +690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
@@ -677,7 +705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -692,7 +720,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -707,7 +735,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>20</v>
       </c>
@@ -722,7 +750,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -737,7 +765,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -752,7 +780,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
@@ -766,8 +794,11 @@
       <c r="E9" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>31</v>
       </c>

--- a/excel/사이트 계정정보.xlsx
+++ b/excel/사이트 계정정보.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Consolework\cocoblanc-order-cancel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27D40C9-E09F-484E-80F8-5CD67301311E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB48B971-FE7D-4E83-B580-0E8098250CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{25A3A81C-DFF3-4E51-A5F2-6E81332BCBB3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{25A3A81C-DFF3-4E51-A5F2-6E81332BCBB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -160,10 +160,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dl5585</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://login.11st.co.kr/auth/front/selleroffice/login.tmall</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,6 +177,10 @@
   </si>
   <si>
     <t>a69d9ede007208255aaa2f8c602d276c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qlalfqjsgh1!@!@</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -640,7 +640,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -670,7 +670,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -698,8 +698,8 @@
       <c r="C3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>36</v>
+      <c r="D3" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>8</v>
@@ -786,16 +786,16 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -810,7 +810,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
